--- a/openconcept/propulsion/empirical_data/H3X_HPDM_2300_volts.xlsx
+++ b/openconcept/propulsion/empirical_data/H3X_HPDM_2300_volts.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{C91AF94F-9931-45D7-B427-419927EDA1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50" yWindow="0" windowWidth="19340" windowHeight="11370" xr2:uid="{2D1A2971-EFBF-4E6A-B2FB-7138C3BBCB64}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="12585" xr2:uid="{2D1A2971-EFBF-4E6A-B2FB-7138C3BBCB64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,12 +422,12 @@
   <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15.333726458555899</v>
       </c>
@@ -456,7 +456,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>48.536837061880298</v>
       </c>
@@ -471,7 +471,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>81.739947665204596</v>
       </c>
@@ -486,7 +486,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>114.943058268529</v>
       </c>
@@ -501,7 +501,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>148.14616887185301</v>
       </c>
@@ -516,7 +516,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>181.34927947517701</v>
       </c>
@@ -531,7 +531,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>214.55239007850199</v>
       </c>
@@ -546,7 +546,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>247.75550068182599</v>
       </c>
@@ -561,7 +561,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>280.95861128515003</v>
       </c>
@@ -576,7 +576,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>314.16172188847497</v>
       </c>
@@ -591,7 +591,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>347.36483249179901</v>
       </c>
@@ -606,7 +606,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>380.56794309512298</v>
       </c>
@@ -621,7 +621,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>413.77105369844799</v>
       </c>
@@ -636,7 +636,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>446.97416430177202</v>
       </c>
@@ -651,7 +651,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>480.17727490509702</v>
       </c>
@@ -666,7 +666,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>513.380385508421</v>
       </c>
@@ -681,7 +681,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>546.58349611174503</v>
       </c>
@@ -696,7 +696,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>579.78660671506998</v>
       </c>
@@ -711,7 +711,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>612.98971731839401</v>
       </c>
@@ -726,7 +726,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>646.19282792171805</v>
       </c>
@@ -741,7 +741,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>679.39593852504299</v>
       </c>
@@ -756,7 +756,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>712.59904912836703</v>
       </c>
@@ -771,7 +771,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>745.80215973169197</v>
       </c>
@@ -786,7 +786,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>779.00527033501601</v>
       </c>
@@ -801,7 +801,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>812.20838093834004</v>
       </c>
@@ -816,7 +816,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>845.41149154166499</v>
       </c>
@@ -831,7 +831,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>878.61460214498902</v>
       </c>
@@ -846,7 +846,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>911.81771274831306</v>
       </c>
@@ -861,7 +861,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>945.020823351638</v>
       </c>
@@ -876,7 +876,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>978.22393395496204</v>
       </c>
@@ -891,7 +891,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1011.42704455828</v>
       </c>
@@ -906,7 +906,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1044.63015516161</v>
       </c>
@@ -921,7 +921,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1077.83326576493</v>
       </c>
@@ -936,7 +936,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1111.0363763682501</v>
       </c>
@@ -951,7 +951,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1144.2394869715799</v>
       </c>
@@ -966,7 +966,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1177.4425975749</v>
       </c>
@@ -981,7 +981,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1210.6457081782301</v>
       </c>
@@ -996,7 +996,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1243.8488187815501</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1277.0519293848799</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1310.2550399882</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1343.4581505915301</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1376.6612611948501</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1409.8643717981699</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1443.0674824015</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1476.2705930048201</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1509.4737036081499</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1542.6768142114699</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1568.6046511627901</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1606.9767441860399</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1642.2861460214499</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1675.48925662477</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1708.69236722809</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1741.8954778314201</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1775.0985884347399</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1797.73707293701</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15.333726458555899</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>48.536837061880298</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>81.739947665204596</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>114.943058268529</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>148.14616887185301</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>181.34927947517701</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>214.55239007850199</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>247.75550068182599</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>280.95861128515003</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>314.16172188847497</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>347.36483249179901</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>380.56794309512298</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>413.77105369844799</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>446.97416430177202</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>480.17727490509702</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>513.380385508421</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>546.58349611174503</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>579.78660671506998</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>612.98971731839401</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>646.19282792171805</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>679.39593852504299</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>712.59904912836703</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>745.80215973169197</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>779.00527033501601</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>812.20838093834004</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>845.41149154166499</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>878.61460214498902</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>911.81771274831306</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>945.020823351638</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>978.22393395496204</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1011.42704455828</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1044.63015516161</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1077.83326576493</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1111.0363763682501</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1144.2394869715799</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1177.4425975749</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1210.6457081782301</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1243.8488187815501</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1277.0519293848799</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1310.2550399882</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1343.4581505915301</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1376.6612611948501</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1409.8643717981699</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1443.0674824015</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1476.2705930048201</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1509.3023255813901</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1544.1860465116199</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1572.0930232558101</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1603.48837209302</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1642.2861460214499</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1675.48925662477</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1708.69236722809</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1741.8954778314201</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1775.0985884347399</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1797.73707293701</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>29.084509637710401</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>60.107618029705499</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>96.077654516640195</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>127.016916669737</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>163.99310802343899</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>198.16643939114701</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>234.819223823388</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>267.37552058378998</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>305.10632808756799</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>336.584601776434</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>371.51254929421702</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>404.212582464158</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>440.07481664393902</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>472.63111340434102</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>504.82806914089798</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>537.09689308222403</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>575.04330520030896</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>608.246415803633</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>644.68359562156695</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>675.37131905797298</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>712.16783989975204</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>743.21490436000397</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>780.01142520178303</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>811.77717170972596</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>847.92687870858299</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>882.13614417867495</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>919.363874249069</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>949.54852025209095</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>982.75163085541499</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1021.82397818155</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1047.6486197619099</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1073.2558139534799</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1097.6744186046501</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1129.06976744186</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1163.9534883720901</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1198.8372093023199</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1240.6976744185999</v>
       </c>
@@ -2646,7 +2646,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1275.58139534883</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1320.93023255813</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1366.27906976744</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1404.65116279069</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1443.0232558139501</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1481.3953488371999</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1516.27906976744</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1561.62790697674</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1603.48837209302</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1638.37209302325</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1669.7674418604599</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1697.6744186046501</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1736.0465116278999</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1767.44186046511</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1791.86046511627</v>
       </c>
